--- a/database/industries/kashi/kehafez/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD684F8-2805-4B12-B733-AF8773CFF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC1BE89-ECD0-4D0F-B225-7FE882C0E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +630,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +858,7 @@
         <v>8204077</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-4452245</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +930,7 @@
         <v>3751832</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-321002</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>-38712</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>3392118</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-228485</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>93752</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3257385</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-112624</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>3144761</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>3144761</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>5141234</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/kashi/kehafez/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC1BE89-ECD0-4D0F-B225-7FE882C0E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B0C29-7273-42A2-9F55-FD5EB5C40F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/kashi/kehafez/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B0C29-7273-42A2-9F55-FD5EB5C40F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA911D1-AA6B-4C97-A145-3026B4832906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>کحافظ-کاشی‌ وسرامیک‌ حافظ‌</t>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>9 ماهه منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>9 ماهه منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>6 ماهه منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-03-13 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-01 (6)</t>
+  </si>
+  <si>
+    <t>1399-11-07 (3)</t>
+  </si>
+  <si>
+    <t>1400-04-09 (12)</t>
+  </si>
+  <si>
+    <t>1400-04-29 (2)</t>
+  </si>
+  <si>
     <t>1400-08-30 (6)</t>
   </si>
   <si>
@@ -88,18 +139,24 @@
     <t>1401-11-01 (2)</t>
   </si>
   <si>
-    <t>1401-11-01 (8)</t>
-  </si>
-  <si>
-    <t>1401-05-05</t>
-  </si>
-  <si>
-    <t>1401-10-10 (3)</t>
+    <t>1402-04-26 (10)</t>
+  </si>
+  <si>
+    <t>1402-05-01 (2)</t>
+  </si>
+  <si>
+    <t>1402-09-15 (5)</t>
   </si>
   <si>
     <t>1401-11-01</t>
   </si>
   <si>
+    <t>1402-05-01</t>
+  </si>
+  <si>
+    <t>1402-09-15 (2)</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -121,13 +178,13 @@
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,22 +672,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="23" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -643,8 +706,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,8 +732,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +758,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -689,8 +782,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,8 +808,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +834,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,8 +858,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -771,44 +904,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -821,154 +1014,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>127248</v>
+      </c>
+      <c r="E11" s="13">
+        <v>207397</v>
+      </c>
+      <c r="F11" s="13">
+        <v>94855</v>
+      </c>
+      <c r="G11" s="13">
+        <v>313135</v>
+      </c>
+      <c r="H11" s="13">
+        <v>580762</v>
+      </c>
+      <c r="I11" s="13">
+        <v>991338</v>
+      </c>
+      <c r="J11" s="13">
+        <v>312562</v>
+      </c>
+      <c r="K11" s="13">
         <v>873554</v>
       </c>
-      <c r="E11" s="13">
+      <c r="L11" s="13">
         <v>1623874</v>
       </c>
-      <c r="F11" s="13">
+      <c r="M11" s="13">
         <v>2346627</v>
       </c>
-      <c r="G11" s="13">
+      <c r="N11" s="13">
         <v>807734</v>
       </c>
-      <c r="H11" s="13">
+      <c r="O11" s="13">
         <v>1916237</v>
       </c>
-      <c r="I11" s="13">
+      <c r="P11" s="13">
         <v>2995097</v>
       </c>
-      <c r="J11" s="13">
+      <c r="Q11" s="13">
         <v>4478363</v>
       </c>
-      <c r="K11" s="13">
-        <v>1903632</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="R11" s="13">
+        <v>1901583</v>
+      </c>
+      <c r="S11" s="13">
         <v>5015999</v>
       </c>
-      <c r="M11" s="13">
+      <c r="T11" s="13">
         <v>8204077</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U11" s="13">
+        <v>11292490</v>
+      </c>
+      <c r="V11" s="13">
+        <v>3586906</v>
+      </c>
+      <c r="W11" s="13">
+        <v>8148431</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-163579</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-328567</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-91855</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-293427</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-527960</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-911400</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-272114</v>
+      </c>
+      <c r="K12" s="11">
         <v>-661203</v>
       </c>
-      <c r="E12" s="11">
+      <c r="L12" s="11">
         <v>-1143835</v>
       </c>
-      <c r="F12" s="11">
+      <c r="M12" s="11">
         <v>-1596196</v>
       </c>
-      <c r="G12" s="11">
+      <c r="N12" s="11">
         <v>-457104</v>
       </c>
-      <c r="H12" s="11">
+      <c r="O12" s="11">
         <v>-1165795</v>
       </c>
-      <c r="I12" s="11">
+      <c r="P12" s="11">
         <v>-1785049</v>
       </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
         <v>-2546691</v>
       </c>
-      <c r="K12" s="11">
-        <v>-1136800</v>
-      </c>
-      <c r="L12" s="11">
+      <c r="R12" s="11">
+        <v>-1134751</v>
+      </c>
+      <c r="S12" s="11">
         <v>-2794637</v>
       </c>
-      <c r="M12" s="11">
+      <c r="T12" s="11">
         <v>-4452245</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-5962966</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-2307375</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-4595597</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>-36331</v>
+      </c>
+      <c r="E13" s="15">
+        <v>-121170</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="15">
+        <v>19708</v>
+      </c>
+      <c r="H13" s="15">
+        <v>52802</v>
+      </c>
+      <c r="I13" s="15">
+        <v>79938</v>
+      </c>
+      <c r="J13" s="15">
+        <v>40448</v>
+      </c>
+      <c r="K13" s="15">
         <v>212351</v>
       </c>
-      <c r="E13" s="15">
+      <c r="L13" s="15">
         <v>480039</v>
       </c>
-      <c r="F13" s="15">
+      <c r="M13" s="15">
         <v>750431</v>
       </c>
-      <c r="G13" s="15">
+      <c r="N13" s="15">
         <v>350630</v>
       </c>
-      <c r="H13" s="15">
+      <c r="O13" s="15">
         <v>750442</v>
       </c>
-      <c r="I13" s="15">
+      <c r="P13" s="15">
         <v>1210048</v>
       </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
         <v>1931672</v>
       </c>
-      <c r="K13" s="15">
+      <c r="R13" s="15">
         <v>766832</v>
       </c>
-      <c r="L13" s="15">
+      <c r="S13" s="15">
         <v>2221362</v>
       </c>
-      <c r="M13" s="15">
+      <c r="T13" s="15">
         <v>3751832</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>5329524</v>
+      </c>
+      <c r="V13" s="15">
+        <v>1279531</v>
+      </c>
+      <c r="W13" s="15">
+        <v>3552834</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-15421</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-23934</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-7691</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-15687</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-17477</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-46793</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-3771</v>
+      </c>
+      <c r="K14" s="11">
         <v>-22695</v>
       </c>
-      <c r="E14" s="11">
+      <c r="L14" s="11">
         <v>-39385</v>
       </c>
-      <c r="F14" s="11">
+      <c r="M14" s="11">
         <v>-62458</v>
       </c>
-      <c r="G14" s="11">
+      <c r="N14" s="11">
         <v>-22232</v>
       </c>
-      <c r="H14" s="11">
+      <c r="O14" s="11">
         <v>-43140</v>
       </c>
-      <c r="I14" s="11">
+      <c r="P14" s="11">
         <v>-64506</v>
       </c>
-      <c r="J14" s="11">
+      <c r="Q14" s="11">
         <v>-120179</v>
       </c>
-      <c r="K14" s="11">
+      <c r="R14" s="11">
         <v>-22360</v>
       </c>
-      <c r="L14" s="11">
+      <c r="S14" s="11">
         <v>-106351</v>
       </c>
-      <c r="M14" s="11">
+      <c r="T14" s="11">
         <v>-321002</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-642182</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-60173</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-255665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1001,262 +1324,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>1510</v>
+      </c>
+      <c r="E16" s="11">
+        <v>50935</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-15986</v>
+      </c>
+      <c r="G16" s="11">
+        <v>23631</v>
+      </c>
+      <c r="H16" s="11">
+        <v>13868</v>
+      </c>
+      <c r="I16" s="11">
+        <v>33686</v>
+      </c>
+      <c r="J16" s="11">
+        <v>18273</v>
+      </c>
+      <c r="K16" s="11">
         <v>2521</v>
       </c>
-      <c r="E16" s="11">
+      <c r="L16" s="11">
         <v>-18093</v>
       </c>
-      <c r="F16" s="11">
+      <c r="M16" s="11">
         <v>-47097</v>
       </c>
-      <c r="G16" s="11">
+      <c r="N16" s="11">
         <v>-13307</v>
       </c>
-      <c r="H16" s="11">
+      <c r="O16" s="11">
         <v>-1816</v>
       </c>
-      <c r="I16" s="11">
+      <c r="P16" s="11">
         <v>5472</v>
       </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
         <v>-58660</v>
       </c>
-      <c r="K16" s="11">
+      <c r="R16" s="11">
         <v>-12556</v>
       </c>
-      <c r="L16" s="11">
+      <c r="S16" s="11">
         <v>7989</v>
       </c>
-      <c r="M16" s="11">
+      <c r="T16" s="11">
         <v>-38712</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>-153655</v>
+      </c>
+      <c r="V16" s="11">
+        <v>87374</v>
+      </c>
+      <c r="W16" s="11">
+        <v>39117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>-50242</v>
+      </c>
+      <c r="E17" s="15">
+        <v>-94169</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-20677</v>
+      </c>
+      <c r="G17" s="15">
+        <v>27652</v>
+      </c>
+      <c r="H17" s="15">
+        <v>49193</v>
+      </c>
+      <c r="I17" s="15">
+        <v>66831</v>
+      </c>
+      <c r="J17" s="15">
+        <v>54950</v>
+      </c>
+      <c r="K17" s="15">
         <v>192177</v>
       </c>
-      <c r="E17" s="15">
+      <c r="L17" s="15">
         <v>422561</v>
       </c>
-      <c r="F17" s="15">
+      <c r="M17" s="15">
         <v>640876</v>
       </c>
-      <c r="G17" s="15">
+      <c r="N17" s="15">
         <v>315091</v>
       </c>
-      <c r="H17" s="15">
+      <c r="O17" s="15">
         <v>705486</v>
       </c>
-      <c r="I17" s="15">
+      <c r="P17" s="15">
         <v>1151014</v>
       </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
         <v>1752833</v>
       </c>
-      <c r="K17" s="15">
+      <c r="R17" s="15">
         <v>731916</v>
       </c>
-      <c r="L17" s="15">
+      <c r="S17" s="15">
         <v>2123000</v>
       </c>
-      <c r="M17" s="15">
+      <c r="T17" s="15">
         <v>3392118</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>4533687</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1306732</v>
+      </c>
+      <c r="W17" s="15">
+        <v>3336286</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-28820</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-31895</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-6569</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-12614</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-17252</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-21861</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-4337</v>
+      </c>
+      <c r="K18" s="11">
         <v>-14334</v>
       </c>
-      <c r="E18" s="11">
+      <c r="L18" s="11">
         <v>-23590</v>
       </c>
-      <c r="F18" s="11">
+      <c r="M18" s="11">
         <v>-20579</v>
       </c>
-      <c r="G18" s="11">
+      <c r="N18" s="11">
         <v>-5655</v>
       </c>
-      <c r="H18" s="11">
+      <c r="O18" s="11">
         <v>-15462</v>
       </c>
-      <c r="I18" s="11">
+      <c r="P18" s="11">
         <v>-26054</v>
       </c>
-      <c r="J18" s="11">
+      <c r="Q18" s="11">
         <v>-53832</v>
       </c>
-      <c r="K18" s="11">
+      <c r="R18" s="11">
         <v>-16279</v>
       </c>
-      <c r="L18" s="11">
+      <c r="S18" s="11">
         <v>-110653</v>
       </c>
-      <c r="M18" s="11">
+      <c r="T18" s="11">
         <v>-228485</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>-336671</v>
+      </c>
+      <c r="V18" s="11">
+        <v>-42074</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-330039</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>8205</v>
+      </c>
+      <c r="E19" s="13">
+        <v>11589</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-19</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7034</v>
+      </c>
+      <c r="H19" s="13">
+        <v>19135</v>
+      </c>
+      <c r="I19" s="13">
+        <v>38344</v>
+      </c>
+      <c r="J19" s="13">
+        <v>4637</v>
+      </c>
+      <c r="K19" s="13">
         <v>206654</v>
       </c>
-      <c r="E19" s="13">
+      <c r="L19" s="13">
         <v>210580</v>
       </c>
-      <c r="F19" s="13">
+      <c r="M19" s="13">
         <v>169300</v>
       </c>
-      <c r="G19" s="13">
+      <c r="N19" s="13">
         <v>14163</v>
       </c>
-      <c r="H19" s="13">
+      <c r="O19" s="13">
         <v>15001</v>
       </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
         <v>159105</v>
       </c>
-      <c r="K19" s="13">
+      <c r="R19" s="13">
         <v>19757</v>
       </c>
-      <c r="L19" s="13">
+      <c r="S19" s="13">
         <v>33583</v>
       </c>
-      <c r="M19" s="13">
+      <c r="T19" s="13">
         <v>93752</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>50265</v>
+      </c>
+      <c r="V19" s="13">
+        <v>-6210</v>
+      </c>
+      <c r="W19" s="13">
+        <v>66742</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>-70857</v>
+      </c>
+      <c r="E20" s="17">
+        <v>-114475</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-27265</v>
+      </c>
+      <c r="G20" s="17">
+        <v>22072</v>
+      </c>
+      <c r="H20" s="17">
+        <v>51076</v>
+      </c>
+      <c r="I20" s="17">
+        <v>83314</v>
+      </c>
+      <c r="J20" s="17">
+        <v>55250</v>
+      </c>
+      <c r="K20" s="17">
         <v>384497</v>
       </c>
-      <c r="E20" s="17">
+      <c r="L20" s="17">
         <v>609551</v>
       </c>
-      <c r="F20" s="17">
+      <c r="M20" s="17">
         <v>789597</v>
       </c>
-      <c r="G20" s="17">
+      <c r="N20" s="17">
         <v>323599</v>
       </c>
-      <c r="H20" s="17">
+      <c r="O20" s="17">
         <v>705025</v>
       </c>
-      <c r="I20" s="17">
+      <c r="P20" s="17">
         <v>1124960</v>
       </c>
-      <c r="J20" s="17">
+      <c r="Q20" s="17">
         <v>1858106</v>
       </c>
-      <c r="K20" s="17">
+      <c r="R20" s="17">
         <v>735394</v>
       </c>
-      <c r="L20" s="17">
+      <c r="S20" s="17">
         <v>2045930</v>
       </c>
-      <c r="M20" s="17">
+      <c r="T20" s="17">
         <v>3257385</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>4247281</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1258448</v>
+      </c>
+      <c r="W20" s="17">
+        <v>3072989</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-15548</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
         <v>-71496</v>
       </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
         <v>-85675</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
         <v>-110831</v>
       </c>
-      <c r="I21" s="13">
+      <c r="P21" s="13">
         <v>-163709</v>
       </c>
-      <c r="J21" s="13">
-        <v>-16516</v>
-      </c>
-      <c r="K21" s="13">
+      <c r="Q21" s="13">
+        <v>-209425</v>
+      </c>
+      <c r="R21" s="13">
         <v>-73539</v>
       </c>
-      <c r="L21" s="13">
+      <c r="S21" s="13">
         <v>-75634</v>
       </c>
-      <c r="M21" s="13">
+      <c r="T21" s="13">
         <v>-112624</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>-20613</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-5702</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>-70857</v>
+      </c>
+      <c r="E22" s="17">
+        <v>-114475</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-27265</v>
+      </c>
+      <c r="G22" s="17">
+        <v>22072</v>
+      </c>
+      <c r="H22" s="17">
+        <v>51076</v>
+      </c>
+      <c r="I22" s="17">
+        <v>67766</v>
+      </c>
+      <c r="J22" s="17">
+        <v>55250</v>
+      </c>
+      <c r="K22" s="17">
         <v>313001</v>
       </c>
-      <c r="E22" s="17">
+      <c r="L22" s="17">
         <v>609551</v>
       </c>
-      <c r="F22" s="17">
+      <c r="M22" s="17">
         <v>703922</v>
       </c>
-      <c r="G22" s="17">
+      <c r="N22" s="17">
         <v>323599</v>
       </c>
-      <c r="H22" s="17">
+      <c r="O22" s="17">
         <v>594194</v>
       </c>
-      <c r="I22" s="17">
+      <c r="P22" s="17">
         <v>961251</v>
       </c>
-      <c r="J22" s="17">
-        <v>1841590</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="Q22" s="17">
+        <v>1648681</v>
+      </c>
+      <c r="R22" s="17">
         <v>661855</v>
       </c>
-      <c r="L22" s="17">
+      <c r="S22" s="17">
         <v>1970296</v>
       </c>
-      <c r="M22" s="17">
+      <c r="T22" s="17">
         <v>3144761</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>4226668</v>
+      </c>
+      <c r="V22" s="17">
+        <v>1252746</v>
+      </c>
+      <c r="W22" s="17">
+        <v>3072989</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1289,86 +1852,176 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>-70857</v>
+      </c>
+      <c r="E24" s="17">
+        <v>-114475</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-27265</v>
+      </c>
+      <c r="G24" s="17">
+        <v>22072</v>
+      </c>
+      <c r="H24" s="17">
+        <v>51076</v>
+      </c>
+      <c r="I24" s="17">
+        <v>67766</v>
+      </c>
+      <c r="J24" s="17">
+        <v>55250</v>
+      </c>
+      <c r="K24" s="17">
         <v>313001</v>
       </c>
-      <c r="E24" s="17">
+      <c r="L24" s="17">
         <v>609551</v>
       </c>
-      <c r="F24" s="17">
+      <c r="M24" s="17">
         <v>703922</v>
       </c>
-      <c r="G24" s="17">
+      <c r="N24" s="17">
         <v>323599</v>
       </c>
-      <c r="H24" s="17">
+      <c r="O24" s="17">
         <v>594194</v>
       </c>
-      <c r="I24" s="17">
+      <c r="P24" s="17">
         <v>961251</v>
       </c>
-      <c r="J24" s="17">
-        <v>1841590</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="Q24" s="17">
+        <v>1648681</v>
+      </c>
+      <c r="R24" s="17">
         <v>661855</v>
       </c>
-      <c r="L24" s="17">
+      <c r="S24" s="17">
         <v>1970296</v>
       </c>
-      <c r="M24" s="17">
+      <c r="T24" s="17">
         <v>3144761</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>4226668</v>
+      </c>
+      <c r="V24" s="17">
+        <v>1252746</v>
+      </c>
+      <c r="W24" s="17">
+        <v>3072989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>-394</v>
+      </c>
+      <c r="E25" s="13">
+        <v>-78</v>
+      </c>
+      <c r="F25" s="13">
+        <v>-19</v>
+      </c>
+      <c r="G25" s="13">
+        <v>123</v>
+      </c>
+      <c r="H25" s="13">
+        <v>284</v>
+      </c>
+      <c r="I25" s="13">
+        <v>46</v>
+      </c>
+      <c r="J25" s="13">
+        <v>38</v>
+      </c>
+      <c r="K25" s="13">
         <v>213</v>
       </c>
-      <c r="E25" s="13">
+      <c r="L25" s="13">
         <v>415</v>
       </c>
-      <c r="F25" s="13">
+      <c r="M25" s="13">
         <v>479</v>
       </c>
-      <c r="G25" s="13">
+      <c r="N25" s="13">
         <v>63</v>
       </c>
-      <c r="H25" s="13">
+      <c r="O25" s="13">
         <v>116</v>
       </c>
-      <c r="I25" s="13">
+      <c r="P25" s="13">
         <v>187</v>
       </c>
-      <c r="J25" s="13">
-        <v>358</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="Q25" s="13">
+        <v>321</v>
+      </c>
+      <c r="R25" s="13">
         <v>129</v>
       </c>
-      <c r="L25" s="13">
+      <c r="S25" s="13">
         <v>383</v>
       </c>
-      <c r="M25" s="13">
+      <c r="T25" s="13">
         <v>612</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="13">
+        <v>822</v>
+      </c>
+      <c r="V25" s="13">
+        <v>244</v>
+      </c>
+      <c r="W25" s="13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1468924</v>
+        <v>180000</v>
       </c>
       <c r="E26" s="11">
         <v>1468924</v>
@@ -1377,64 +2030,124 @@
         <v>1468924</v>
       </c>
       <c r="G26" s="11">
+        <v>180000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>180000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="N26" s="11">
         <v>5141234</v>
       </c>
-      <c r="H26" s="11">
+      <c r="O26" s="11">
         <v>5141234</v>
       </c>
-      <c r="I26" s="11">
+      <c r="P26" s="11">
         <v>5141234</v>
       </c>
-      <c r="J26" s="11">
+      <c r="Q26" s="11">
         <v>5141234</v>
       </c>
-      <c r="K26" s="11">
+      <c r="R26" s="11">
         <v>5141234</v>
       </c>
-      <c r="L26" s="11">
+      <c r="S26" s="11">
         <v>5141234</v>
       </c>
-      <c r="M26" s="11">
+      <c r="T26" s="11">
         <v>5141234</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="V26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="W26" s="11">
+        <v>5141234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>-14</v>
+      </c>
+      <c r="E27" s="13">
+        <v>-22</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-5</v>
+      </c>
+      <c r="G27" s="13">
+        <v>4</v>
+      </c>
+      <c r="H27" s="13">
+        <v>10</v>
+      </c>
+      <c r="I27" s="13">
+        <v>13</v>
+      </c>
+      <c r="J27" s="13">
+        <v>11</v>
+      </c>
+      <c r="K27" s="13">
         <v>61</v>
       </c>
-      <c r="E27" s="13">
+      <c r="L27" s="13">
         <v>119</v>
       </c>
-      <c r="F27" s="13">
+      <c r="M27" s="13">
         <v>137</v>
       </c>
-      <c r="G27" s="13">
+      <c r="N27" s="13">
         <v>63</v>
       </c>
-      <c r="H27" s="13">
+      <c r="O27" s="13">
         <v>116</v>
       </c>
-      <c r="I27" s="13">
+      <c r="P27" s="13">
         <v>187</v>
       </c>
-      <c r="J27" s="13">
-        <v>358</v>
-      </c>
-      <c r="K27" s="13">
+      <c r="Q27" s="13">
+        <v>321</v>
+      </c>
+      <c r="R27" s="13">
         <v>129</v>
       </c>
-      <c r="L27" s="13">
+      <c r="S27" s="13">
         <v>383</v>
       </c>
-      <c r="M27" s="13">
+      <c r="T27" s="13">
         <v>612</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>822</v>
+      </c>
+      <c r="V27" s="13">
+        <v>244</v>
+      </c>
+      <c r="W27" s="13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1447,6 +2160,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
